--- a/files/SearchTerms.xlsx
+++ b/files/SearchTerms.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/alankar_gupta_gds_ey_com/Documents/Desktop/Research Institute/Text Analytics Portal/News Insights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman.Kaushik\Downloads\Factiva articles trial metaverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2885D240-D205-4FC3-AB3C-DF3D20E51F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A4F75-A3CF-4924-A163-0EF55D43C5DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,166 +37,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
-  <si>
-    <t>Ecosystem</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>Key Terms</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+  <si>
+    <t>NO POVERTY</t>
+  </si>
+  <si>
+    <t>QUALITY EDUCATION</t>
+  </si>
+  <si>
+    <t>GENDER EQUALITY</t>
+  </si>
+  <si>
+    <t>CLIMATE ACTION</t>
+  </si>
+  <si>
+    <t>LIFE ON LAND</t>
+  </si>
+  <si>
+    <t>ZERO HUNGER</t>
+  </si>
+  <si>
+    <t>GOOD HEALTH AND WELL-BEING</t>
+  </si>
+  <si>
+    <t>CLEAN WATER AND SANITATION</t>
+  </si>
+  <si>
+    <t>AFFORDABLE AND CLEAN ENERGY</t>
+  </si>
+  <si>
+    <t>DECENT WORK AND ECONOMIC GROWTH</t>
+  </si>
+  <si>
+    <t>REDUCED INEQUALITIES</t>
+  </si>
+  <si>
+    <t>SUSTAINABLE CITIES AND COMMUNITIES</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE CONSUMPTION AND PRODUCTION</t>
+  </si>
+  <si>
+    <t>LIFE BELOW WATER</t>
+  </si>
+  <si>
+    <t>PEACE JUSTICE AND STRONG INSTITUTIONS</t>
+  </si>
+  <si>
+    <t>PARTNERSHIPS FOR THE GOAL</t>
+  </si>
+  <si>
+    <t>INDUSTRY INNOVATION AND INFRASTRUCTURE</t>
   </si>
   <si>
     <t>Goals</t>
   </si>
   <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>Telecom services</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>cable</t>
-  </si>
-  <si>
-    <t>Telecom Infra</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>Digital investment</t>
-  </si>
-  <si>
-    <t>Privacy</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>fibre</t>
-  </si>
-  <si>
-    <t>Payment</t>
+    <t>KeyWord</t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>virtual real estate</t>
+  </si>
+  <si>
+    <t>virtual properties</t>
+  </si>
+  <si>
+    <t>digital real esate</t>
+  </si>
+  <si>
+    <t>digital real assets</t>
+  </si>
+  <si>
+    <t>digital properties</t>
+  </si>
+  <si>
+    <t>metaverse properties</t>
+  </si>
+  <si>
+    <t>digital plots</t>
+  </si>
+  <si>
+    <t>virtual plots</t>
+  </si>
+  <si>
+    <t>virtual land</t>
+  </si>
+  <si>
+    <t>virtual reality platform</t>
+  </si>
+  <si>
+    <t>Virtual Real Estate</t>
+  </si>
+  <si>
+    <t>manufacturing simulation</t>
+  </si>
+  <si>
+    <t>virtual simulation</t>
+  </si>
+  <si>
+    <t>digital twins</t>
+  </si>
+  <si>
+    <t>virtual manufacturing</t>
+  </si>
+  <si>
+    <t>Manufacturing Simulation</t>
+  </si>
+  <si>
+    <t>immersive learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixed-reality learning </t>
+  </si>
+  <si>
+    <t>metaverse learning</t>
+  </si>
+  <si>
+    <t>VR learning</t>
+  </si>
+  <si>
+    <t>AR learning</t>
+  </si>
+  <si>
+    <t>VR training</t>
+  </si>
+  <si>
+    <t>virtual recruitment</t>
+  </si>
+  <si>
+    <t>3d training</t>
+  </si>
+  <si>
+    <t>training metaverse</t>
+  </si>
+  <si>
+    <t>Virtual Employee Training</t>
+  </si>
+  <si>
+    <t>virtual retail</t>
+  </si>
+  <si>
+    <t>virtual shopping</t>
+  </si>
+  <si>
+    <t>virtual clienteling</t>
+  </si>
+  <si>
+    <t>omnichannel shopping</t>
+  </si>
+  <si>
+    <t>humanising digital retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immersive virtual stores </t>
+  </si>
+  <si>
+    <t>3d virtual store</t>
+  </si>
+  <si>
+    <t>metaverse shopping</t>
+  </si>
+  <si>
+    <t>virtual clothing</t>
+  </si>
+  <si>
+    <t>virtual goods</t>
+  </si>
+  <si>
+    <t>Virtual Retail / Shopping Goods</t>
+  </si>
+  <si>
+    <t>gaming</t>
+  </si>
+  <si>
+    <t>digital avatar</t>
+  </si>
+  <si>
+    <t>digital character</t>
+  </si>
+  <si>
+    <t>virtual game</t>
+  </si>
+  <si>
+    <t>3D avatars</t>
+  </si>
+  <si>
+    <t>virtual reality</t>
+  </si>
+  <si>
+    <t>interoperable VR space</t>
+  </si>
+  <si>
+    <t>digital financial ecosystems</t>
+  </si>
+  <si>
+    <t>metaverse wallets</t>
+  </si>
+  <si>
+    <t>robo advisory</t>
+  </si>
+  <si>
+    <t>virtual financial data</t>
+  </si>
+  <si>
+    <t>digital bank branches</t>
+  </si>
+  <si>
+    <t>digital touchpoint</t>
+  </si>
+  <si>
+    <t>blockchain wallets</t>
+  </si>
+  <si>
+    <t>digital wallets</t>
+  </si>
+  <si>
+    <t>digital wedding</t>
+  </si>
+  <si>
+    <t>virtual wedding</t>
+  </si>
+  <si>
+    <t>virtual event</t>
+  </si>
+  <si>
+    <t>virtual concert</t>
+  </si>
+  <si>
+    <t>virtual theme park</t>
+  </si>
+  <si>
+    <t>virtual classroom</t>
+  </si>
+  <si>
+    <t>virtual learning</t>
+  </si>
+  <si>
+    <t>virtual school</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
   <si>
     <t>Decentralized Finance/Marketplaces</t>
   </si>
   <si>
-    <t>Connectivity</t>
-  </si>
-  <si>
-    <t>Cybersecurity</t>
-  </si>
-  <si>
-    <t>gaming</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Devices</t>
-  </si>
-  <si>
-    <t>Partnership</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR </t>
-  </si>
-  <si>
-    <t>5G network</t>
-  </si>
-  <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>metaverse</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>digital properties</t>
-  </si>
-  <si>
-    <t>Virtual Real Estate</t>
-  </si>
-  <si>
-    <t>5G launch</t>
-  </si>
-  <si>
-    <t>virtual event</t>
-  </si>
-  <si>
     <t>Virtual Events/Experiences</t>
   </si>
   <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>Funding</t>
-  </si>
-  <si>
-    <t>XR</t>
-  </si>
-  <si>
-    <t>digital twin</t>
-  </si>
-  <si>
-    <t>Manufacturing Simulation</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Cyber</t>
-  </si>
-  <si>
-    <t>NFT</t>
-  </si>
-  <si>
-    <t>5G expansion</t>
-  </si>
-  <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>cryptocurrency</t>
-  </si>
-  <si>
-    <t>virtual goods</t>
-  </si>
-  <si>
-    <t>Virtual Retail / Shopping Goods</t>
-  </si>
-  <si>
-    <t>crypto</t>
-  </si>
-  <si>
-    <t>Startup</t>
+    <t>Decentralized Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +303,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,7 +321,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,10 +422,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,320 +727,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B56" sqref="B56:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B8DB7-E033-42CC-93B6-3F949551CD07}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
